--- a/data/air_info/武汉-成都.xlsx
+++ b/data/air_info/武汉-成都.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5588EF8A-2D4B-43A4-85A1-0A193A910504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5345ADB2-59A8-4EF2-8524-0BE3775DC682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,33 +33,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>南航经济舱Boeing 737CZ 3447</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A320CA 8291</t>
   </si>
   <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>东航经济舱Boeing 737MU 2653</t>
   </si>
   <si>
-    <t>行程时间：2 小时 10 分钟</t>
-  </si>
-  <si>
     <t>川航经济舱Airbus A3203U 8790</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 4398</t>
   </si>
   <si>
@@ -69,9 +54,6 @@
     <t>东航经济舱Boeing 737MU 2651</t>
   </si>
   <si>
-    <t>行程时间：2 小时 20 分钟</t>
-  </si>
-  <si>
     <t>国航经济舱Airbus A321CA 8265</t>
   </si>
   <si>
@@ -120,8 +102,25 @@
     <t>航空信息</t>
   </si>
   <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
+    <t>1 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 10 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
+  </si>
+  <si>
+    <t>2 小时 20 分钟</t>
+  </si>
+  <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -477,7 +476,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -486,28 +485,27 @@
     <col min="3" max="3" width="31.90625" style="1" customWidth="1"/>
     <col min="4" max="5" width="36.90625" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.26953125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>29</v>
@@ -518,23 +516,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2">
         <v>0.43402777777777779</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(800,2000)</f>
-        <v>1613</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -542,23 +539,22 @@
         <v>0.34722222222222221</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D3" s="2">
         <v>0.43055555555555558</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G15" ca="1" si="0">RANDBETWEEN(800,2000)</f>
-        <v>1683</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -566,23 +562,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1586</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -590,23 +585,22 @@
         <v>0.41319444444444442</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="D5" s="2">
         <v>0.50347222222222221</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1832</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -614,23 +608,22 @@
         <v>0.47222222222222221</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2">
         <v>0.55208333333333337</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1922</v>
+        <v>1962</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -638,23 +631,22 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>0.60763888888888884</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1096</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -662,23 +654,22 @@
         <v>0.57638888888888884</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
         <v>0.65625</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1744</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,23 +677,22 @@
         <v>0.62152777777777779</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>0.71875</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1236</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,23 +700,22 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>0.75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1653</v>
+        <v>1957</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,23 +723,22 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0.80902777777777779</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>910</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,23 +746,22 @@
         <v>0.75</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="D12" s="2">
         <v>0.82986111111111116</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1352</v>
+        <v>939</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -782,23 +769,22 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>0.86458333333333337</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1399</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -806,23 +792,22 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>0.88888888888888884</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1512</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -830,23 +815,22 @@
         <v>0.91319444444444442</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2">
         <v>0.99652777777777779</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1342</v>
+        <v>1621</v>
       </c>
     </row>
   </sheetData>
